--- a/selenium-study/data/vocab_list.xlsx
+++ b/selenium-study/data/vocab_list.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8555" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="8555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="N2_1文字" sheetId="1" r:id="rId1"/>
     <sheet name="N2_2文字_名詞" sheetId="2" r:id="rId2"/>
-    <sheet name="test" sheetId="3" r:id="rId3"/>
+    <sheet name="N2_2文字_名詞_old" sheetId="4" r:id="rId3"/>
+    <sheet name="test" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="825">
   <si>
     <t>語彙</t>
   </si>
@@ -52,439 +53,2455 @@
     <t>types</t>
   </si>
   <si>
+    <t>合図</t>
+  </si>
+  <si>
+    <t>あいず(する)</t>
+  </si>
+  <si>
+    <t>青空</t>
+  </si>
+  <si>
+    <t>あおぞら</t>
+  </si>
+  <si>
+    <t>以外</t>
+  </si>
+  <si>
+    <t>いがい</t>
+  </si>
+  <si>
+    <t>以後</t>
+  </si>
+  <si>
+    <t>いご</t>
+  </si>
+  <si>
+    <t>以降</t>
+  </si>
+  <si>
+    <t>いこう</t>
+  </si>
+  <si>
+    <t>維持</t>
+  </si>
+  <si>
+    <t>いじ(する)</t>
+  </si>
+  <si>
+    <t>意識</t>
+  </si>
+  <si>
+    <t>いしき(する)</t>
+  </si>
+  <si>
+    <t>以前</t>
+  </si>
+  <si>
+    <t>いぜん</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>いち(する)</t>
+  </si>
+  <si>
+    <t>一流</t>
+  </si>
+  <si>
+    <t>いちりゅう</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>いっぱん</t>
+  </si>
+  <si>
+    <t>移動</t>
+  </si>
+  <si>
+    <t>いどう(する)</t>
+  </si>
+  <si>
+    <t>以内</t>
+  </si>
+  <si>
+    <t>いない</t>
+  </si>
+  <si>
     <t>田舎</t>
   </si>
   <si>
     <t>いなか</t>
   </si>
   <si>
+    <t>印刷</t>
+  </si>
+  <si>
+    <t>いんさつ(する)</t>
+  </si>
+  <si>
+    <t>印象</t>
+  </si>
+  <si>
+    <t>いんしょう</t>
+  </si>
+  <si>
+    <t>飲料</t>
+  </si>
+  <si>
+    <t>いんりょう</t>
+  </si>
+  <si>
+    <t>内側</t>
+  </si>
+  <si>
+    <t>うちがわ</t>
+  </si>
+  <si>
+    <t>宇宙</t>
+  </si>
+  <si>
+    <t>うちゅう</t>
+  </si>
+  <si>
+    <t>影響</t>
+  </si>
+  <si>
+    <t>えいきょう(する)</t>
+  </si>
+  <si>
+    <t>営業</t>
+  </si>
+  <si>
+    <t>えいぎょう(する)</t>
+  </si>
+  <si>
+    <t>栄養</t>
+  </si>
+  <si>
+    <t>えいよう</t>
+  </si>
+  <si>
+    <t>笑顔</t>
+  </si>
+  <si>
+    <t>えがお</t>
+  </si>
+  <si>
+    <t>延期</t>
+  </si>
+  <si>
+    <t>えんき(する)</t>
+  </si>
+  <si>
     <t>演奏</t>
   </si>
   <si>
+    <t>えんそう(する)</t>
+  </si>
+  <si>
+    <t>遠慮</t>
+  </si>
+  <si>
+    <t>えんりょ(する)</t>
+  </si>
+  <si>
+    <t>往復</t>
+  </si>
+  <si>
+    <t>おうふく(する)</t>
+  </si>
+  <si>
+    <t>応募</t>
+  </si>
+  <si>
+    <t>おうぼ(する)</t>
+  </si>
+  <si>
+    <t>応用</t>
+  </si>
+  <si>
+    <t>おうよう(する)</t>
+  </si>
+  <si>
+    <t>大勢</t>
+  </si>
+  <si>
+    <t>おおぜい</t>
+  </si>
+  <si>
+    <t>親子</t>
+  </si>
+  <si>
+    <t>おやこ</t>
+  </si>
+  <si>
+    <t>温泉</t>
+  </si>
+  <si>
+    <t>おんせん</t>
+  </si>
+  <si>
+    <t>会員</t>
+  </si>
+  <si>
+    <t>かいいん</t>
+  </si>
+  <si>
+    <t>絵画</t>
+  </si>
+  <si>
+    <t>かいが</t>
+  </si>
+  <si>
+    <t>会議</t>
+  </si>
+  <si>
+    <t>かいぎ(する)</t>
+  </si>
+  <si>
+    <t>会計</t>
+  </si>
+  <si>
+    <t>かいけい(する)</t>
+  </si>
+  <si>
+    <t>解決</t>
+  </si>
+  <si>
+    <t>かいけつ(する)</t>
+  </si>
+  <si>
+    <t>回収</t>
+  </si>
+  <si>
+    <t>かいしゅう(する)</t>
+  </si>
+  <si>
+    <t>開始</t>
+  </si>
+  <si>
+    <t>かいし(する)</t>
+  </si>
+  <si>
+    <t>開場</t>
+  </si>
+  <si>
+    <t>かいじょう(する)</t>
+  </si>
+  <si>
+    <t>回数</t>
+  </si>
+  <si>
+    <t>かいすう</t>
+  </si>
+  <si>
+    <t>解説</t>
+  </si>
+  <si>
+    <t>かいせつ(する)</t>
+  </si>
+  <si>
+    <t>階段</t>
+  </si>
+  <si>
+    <t>かいだん</t>
+  </si>
+  <si>
+    <t>開店</t>
+  </si>
+  <si>
+    <t>かいてん(する)</t>
+  </si>
+  <si>
+    <t>価格</t>
+  </si>
+  <si>
+    <t>かかく</t>
+  </si>
+  <si>
+    <t>各地</t>
+  </si>
+  <si>
+    <t>かくち</t>
+  </si>
+  <si>
+    <t>確認</t>
+  </si>
+  <si>
+    <t>かくにん(する)</t>
+  </si>
+  <si>
+    <t>過去</t>
+  </si>
+  <si>
+    <t>かこ</t>
+  </si>
+  <si>
+    <t>火災</t>
+  </si>
+  <si>
+    <t>かさい</t>
+  </si>
+  <si>
+    <t>花壇</t>
+  </si>
+  <si>
+    <t>かだん</t>
+  </si>
+  <si>
+    <t>価値</t>
+  </si>
+  <si>
+    <t>かち</t>
+  </si>
+  <si>
+    <t>課長</t>
+  </si>
+  <si>
+    <t>かちょう</t>
+  </si>
+  <si>
+    <t>各国</t>
+  </si>
+  <si>
+    <t>かっこく</t>
+  </si>
+  <si>
+    <t>活動</t>
+  </si>
+  <si>
+    <t>かつどう(する)</t>
+  </si>
+  <si>
+    <t>家庭</t>
+  </si>
+  <si>
+    <t>かてい</t>
+  </si>
+  <si>
+    <t>花瓶</t>
+  </si>
+  <si>
+    <t>かびん</t>
+  </si>
+  <si>
+    <t>髪型</t>
+  </si>
+  <si>
+    <t>かみがた</t>
+  </si>
+  <si>
+    <t>観客</t>
+  </si>
+  <si>
+    <t>かんきゃく</t>
+  </si>
+  <si>
+    <t>環境</t>
+  </si>
+  <si>
+    <t>かんきょう</t>
+  </si>
+  <si>
+    <t>関係</t>
+  </si>
+  <si>
+    <t>かんけい(する)</t>
+  </si>
+  <si>
+    <t>歓迎</t>
+  </si>
+  <si>
+    <t>かんげい(する)</t>
+  </si>
+  <si>
+    <t>感激</t>
+  </si>
+  <si>
+    <t>かんげき(する)</t>
+  </si>
+  <si>
+    <t>観光</t>
+  </si>
+  <si>
+    <t>かんこう(する)</t>
+  </si>
+  <si>
+    <t>看護</t>
+  </si>
+  <si>
+    <t>かんご(する)</t>
+  </si>
+  <si>
+    <t>観察</t>
+  </si>
+  <si>
+    <t>かんさつ(する)</t>
+  </si>
+  <si>
+    <t>感謝</t>
+  </si>
+  <si>
+    <t>かんしゃ(する)</t>
+  </si>
+  <si>
+    <t>感心</t>
+  </si>
+  <si>
+    <t>かんしん(する)</t>
+  </si>
+  <si>
+    <t>関心</t>
+  </si>
+  <si>
+    <t>かんしん</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>かんせい(する)</t>
+  </si>
+  <si>
+    <t>乾燥</t>
+  </si>
+  <si>
+    <t>かんそう(する)</t>
+  </si>
+  <si>
+    <t>感想</t>
+  </si>
+  <si>
+    <t>かんそう</t>
+  </si>
+  <si>
+    <t>感動</t>
+  </si>
+  <si>
+    <t>かんどう(する)</t>
+  </si>
+  <si>
+    <t>館内</t>
+  </si>
+  <si>
+    <t>かんない</t>
+  </si>
+  <si>
+    <t>外出</t>
+  </si>
+  <si>
+    <t>がいしゅつ(する)</t>
+  </si>
+  <si>
+    <t>外食</t>
+  </si>
+  <si>
+    <t>がいしょく(する)</t>
+  </si>
+  <si>
+    <t>画家</t>
+  </si>
+  <si>
+    <t>がか</t>
+  </si>
+  <si>
+    <t>学部</t>
+  </si>
+  <si>
+    <t>がくぶ</t>
+  </si>
+  <si>
+    <t>学期</t>
+  </si>
+  <si>
+    <t>がっき</t>
+  </si>
+  <si>
+    <t>楽器</t>
+  </si>
+  <si>
+    <t>我慢</t>
+  </si>
+  <si>
+    <t>がまん(する)</t>
+  </si>
+  <si>
+    <t>気温</t>
+  </si>
+  <si>
+    <t>きおん</t>
+  </si>
+  <si>
+    <t>機械</t>
+  </si>
+  <si>
+    <t>きかい</t>
+  </si>
+  <si>
+    <t>期間</t>
+  </si>
+  <si>
+    <t>きかん</t>
+  </si>
+  <si>
+    <t>企業</t>
+  </si>
+  <si>
+    <t>きぎょう</t>
+  </si>
+  <si>
+    <t>期限</t>
+  </si>
+  <si>
+    <t>きげん</t>
+  </si>
+  <si>
+    <t>帰国</t>
+  </si>
+  <si>
+    <t>きこく(する)</t>
+  </si>
+  <si>
+    <t>記事</t>
+  </si>
+  <si>
+    <t>きじ</t>
+  </si>
+  <si>
+    <t>基礎</t>
+  </si>
+  <si>
+    <t>きそ</t>
+  </si>
+  <si>
+    <t>規則</t>
+  </si>
+  <si>
+    <t>きそく</t>
+  </si>
+  <si>
+    <t>期待</t>
+  </si>
+  <si>
+    <t>きたい(する)</t>
+  </si>
+  <si>
+    <t>北側</t>
+  </si>
+  <si>
+    <t>きたがわ</t>
+  </si>
+  <si>
+    <t>帰宅</t>
+  </si>
+  <si>
+    <t>きたく(する)</t>
+  </si>
+  <si>
+    <t>切符</t>
+  </si>
+  <si>
+    <t>きっぷ</t>
+  </si>
+  <si>
+    <t>記念</t>
+  </si>
+  <si>
+    <t>きねん(する)</t>
+  </si>
+  <si>
+    <t>基本</t>
+  </si>
+  <si>
+    <t>きほん</t>
+  </si>
+  <si>
+    <t>希望</t>
+  </si>
+  <si>
+    <t>きぼう(する)</t>
+  </si>
+  <si>
+    <t>競争</t>
+  </si>
+  <si>
+    <t>きょうそう(する)</t>
+  </si>
+  <si>
+    <t>共通</t>
+  </si>
+  <si>
+    <t>きょうつう(する)</t>
+  </si>
+  <si>
+    <t>協力</t>
+  </si>
+  <si>
+    <t>きょうりょく(する)</t>
+  </si>
+  <si>
+    <t>距離</t>
+  </si>
+  <si>
+    <t>きょり</t>
+  </si>
+  <si>
+    <t>記録</t>
+  </si>
+  <si>
+    <t>きろく</t>
+  </si>
+  <si>
+    <t>近所</t>
+  </si>
+  <si>
+    <t>きんじょ</t>
+  </si>
+  <si>
+    <t>技術</t>
+  </si>
+  <si>
+    <t>ぎじゅつ</t>
+  </si>
+  <si>
+    <t>草花</t>
+  </si>
+  <si>
+    <t>くさばな</t>
+  </si>
+  <si>
+    <t>工夫</t>
+  </si>
+  <si>
+    <t>くふう(する)</t>
+  </si>
+  <si>
+    <t>区別</t>
+  </si>
+  <si>
+    <t>くべつ(する)</t>
+  </si>
+  <si>
+    <t>苦労</t>
+  </si>
+  <si>
+    <t>くろう(する)</t>
+  </si>
+  <si>
+    <t>訓練</t>
+  </si>
+  <si>
+    <t>くんれん(する)</t>
+  </si>
+  <si>
+    <t>偶然</t>
+  </si>
+  <si>
+    <t>ぐうぜん</t>
+  </si>
+  <si>
+    <t>経営</t>
+  </si>
+  <si>
+    <t>けいえい(する)</t>
+  </si>
+  <si>
+    <t>計画</t>
+  </si>
+  <si>
+    <t>けいかく(する)</t>
+  </si>
+  <si>
+    <t>警官</t>
+  </si>
+  <si>
+    <t>けいかん</t>
+  </si>
+  <si>
+    <t>経験</t>
+  </si>
+  <si>
+    <t>けいけん(する)</t>
+  </si>
+  <si>
+    <t>経済</t>
+  </si>
+  <si>
+    <t>けいざい</t>
+  </si>
+  <si>
+    <t>警察</t>
+  </si>
+  <si>
+    <t>けいさつ</t>
+  </si>
+  <si>
+    <t>携帯</t>
+  </si>
+  <si>
+    <t>けいたい(する)</t>
+  </si>
+  <si>
+    <t>経由</t>
+  </si>
+  <si>
+    <t>けいゆ(する)</t>
+  </si>
+  <si>
+    <t>景色</t>
+  </si>
+  <si>
+    <t>けしき</t>
+  </si>
+  <si>
+    <t>結局</t>
+  </si>
+  <si>
+    <t>けっきょく</t>
+  </si>
+  <si>
+    <t>結構</t>
+  </si>
+  <si>
+    <t>けっこう</t>
+  </si>
+  <si>
+    <t>結婚</t>
+  </si>
+  <si>
+    <t>けっこん(する)</t>
+  </si>
+  <si>
+    <t>欠点</t>
+  </si>
+  <si>
+    <t>けってん</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>けんこう</t>
+  </si>
+  <si>
+    <t>検査</t>
+  </si>
+  <si>
+    <t>けんさ(する)</t>
+  </si>
+  <si>
+    <t>建設</t>
+  </si>
+  <si>
+    <t>けんせつ(する)</t>
+  </si>
+  <si>
+    <t>建築</t>
+  </si>
+  <si>
+    <t>けんちく(する)</t>
+  </si>
+  <si>
+    <t>芸術</t>
+  </si>
+  <si>
+    <t>げいじゅつ</t>
+  </si>
+  <si>
+    <t>原因</t>
+  </si>
+  <si>
+    <t>げんいん</t>
+  </si>
+  <si>
+    <t>原稿</t>
+  </si>
+  <si>
+    <t>げんこう</t>
+  </si>
+  <si>
+    <t>言語</t>
+  </si>
+  <si>
+    <t>げんご</t>
+  </si>
+  <si>
+    <t>減少</t>
+  </si>
+  <si>
+    <t>げんしょう(する)</t>
+  </si>
+  <si>
+    <t>講演</t>
+  </si>
+  <si>
+    <t>こうえん(する)</t>
+  </si>
+  <si>
+    <t>高温</t>
+  </si>
+  <si>
+    <t>こうおん</t>
+  </si>
+  <si>
+    <t>効果</t>
+  </si>
+  <si>
+    <t>こうか</t>
+  </si>
+  <si>
+    <t>交換</t>
+  </si>
+  <si>
+    <t>こうかん(する)</t>
+  </si>
+  <si>
+    <t>後期</t>
+  </si>
+  <si>
+    <t>こうき</t>
+  </si>
+  <si>
+    <t>講義</t>
+  </si>
+  <si>
+    <t>こうぎ(する)</t>
+  </si>
+  <si>
+    <t>公共</t>
+  </si>
+  <si>
+    <t>こうきょう</t>
+  </si>
+  <si>
+    <t>工業</t>
+  </si>
+  <si>
+    <t>こうぎょう</t>
+  </si>
+  <si>
+    <t>航空</t>
+  </si>
+  <si>
+    <t>こうくう</t>
+  </si>
+  <si>
+    <t>広告</t>
+  </si>
+  <si>
+    <t>こうこく(する)</t>
+  </si>
+  <si>
+    <t>工事</t>
+  </si>
+  <si>
+    <t>こうじ(する)</t>
+  </si>
+  <si>
+    <t>紅茶</t>
+  </si>
+  <si>
+    <t>こうちゃ</t>
+  </si>
+  <si>
+    <t>交通</t>
+  </si>
+  <si>
+    <t>こうつう</t>
+  </si>
+  <si>
+    <t>行動</t>
+  </si>
+  <si>
+    <t>こうどう(する)</t>
+  </si>
+  <si>
+    <t>後半</t>
+  </si>
+  <si>
+    <t>こうはん</t>
+  </si>
+  <si>
+    <t>後方</t>
+  </si>
+  <si>
+    <t>こうほう</t>
+  </si>
+  <si>
+    <t>交流</t>
+  </si>
+  <si>
+    <t>こうりゅう(する)</t>
+  </si>
+  <si>
+    <t>国語</t>
+  </si>
+  <si>
+    <t>こくご</t>
+  </si>
+  <si>
+    <t>国際</t>
+  </si>
+  <si>
+    <t>こくさい</t>
+  </si>
+  <si>
+    <t>個人</t>
+  </si>
+  <si>
+    <t>こじん</t>
+  </si>
+  <si>
+    <t>混雑</t>
+  </si>
+  <si>
+    <t>こんざつ(する)</t>
+  </si>
+  <si>
+    <t>合格</t>
+  </si>
+  <si>
+    <t>ごうかく(する)</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>ごうけい(する)</t>
+  </si>
+  <si>
+    <t>最終</t>
+  </si>
+  <si>
+    <t>さいしゅう</t>
+  </si>
+  <si>
+    <t>最初</t>
+  </si>
+  <si>
+    <t>さいしょ</t>
+  </si>
+  <si>
+    <t>財布</t>
+  </si>
+  <si>
+    <t>さいふ</t>
+  </si>
+  <si>
+    <t>作業</t>
+  </si>
+  <si>
+    <t>さぎょう(する)</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>さくしゃ</t>
+  </si>
+  <si>
+    <t>作品</t>
+  </si>
+  <si>
+    <t>さくひん</t>
+  </si>
+  <si>
+    <t>昨夜</t>
+  </si>
+  <si>
+    <t>さくや</t>
+  </si>
+  <si>
+    <t>作家</t>
+  </si>
+  <si>
+    <t>さっか</t>
+  </si>
+  <si>
+    <t>算数</t>
+  </si>
+  <si>
+    <t>さんすう</t>
+  </si>
+  <si>
+    <t>賛成</t>
+  </si>
+  <si>
+    <t>さんせい(する)</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>ざいりょう</t>
+  </si>
+  <si>
+    <t>雑誌</t>
+  </si>
+  <si>
+    <t>ざっし</t>
+  </si>
+  <si>
+    <t>試験</t>
+  </si>
+  <si>
+    <t>しけん(する)</t>
+  </si>
+  <si>
+    <t>資源</t>
+  </si>
+  <si>
+    <t>しげん</t>
+  </si>
+  <si>
+    <t>指示</t>
+  </si>
+  <si>
+    <t>しじ(する)</t>
+  </si>
+  <si>
+    <t>姿勢</t>
+  </si>
+  <si>
+    <t>しせい</t>
+  </si>
+  <si>
+    <t>自然</t>
+  </si>
+  <si>
+    <t>しぜん</t>
+  </si>
+  <si>
+    <t>市長</t>
+  </si>
+  <si>
+    <t>しちょう</t>
+  </si>
+  <si>
+    <t>失敗</t>
+  </si>
+  <si>
+    <t>しっぱい(する)</t>
+  </si>
+  <si>
+    <t>指定</t>
+  </si>
+  <si>
+    <t>してい(する)</t>
+  </si>
+  <si>
+    <t>支店</t>
+  </si>
+  <si>
+    <t>してん</t>
+  </si>
+  <si>
+    <t>指導</t>
+  </si>
+  <si>
+    <t>しどう(する)</t>
+  </si>
+  <si>
+    <t>始発</t>
+  </si>
+  <si>
+    <t>しはつ</t>
+  </si>
+  <si>
+    <t>芝生</t>
+  </si>
+  <si>
+    <t>しばふ</t>
+  </si>
+  <si>
+    <t>市民</t>
+  </si>
+  <si>
+    <t>しみん</t>
+  </si>
+  <si>
+    <t>氏名</t>
+  </si>
+  <si>
+    <t>しめい</t>
+  </si>
+  <si>
+    <t>車内</t>
+  </si>
+  <si>
+    <t>しゃない</t>
+  </si>
+  <si>
+    <t>習慣</t>
+  </si>
+  <si>
+    <t>しゅうかん</t>
+  </si>
+  <si>
+    <t>就職</t>
+  </si>
+  <si>
+    <t>しゅうしょく(する)</t>
+  </si>
+  <si>
+    <t>集中</t>
+  </si>
+  <si>
+    <t>しゅうちゅう(する)</t>
+  </si>
+  <si>
+    <t>収入</t>
+  </si>
+  <si>
+    <t>しゅうにゅう</t>
+  </si>
+  <si>
+    <t>終了</t>
+  </si>
+  <si>
+    <t>しゅうりょう(する)</t>
+  </si>
+  <si>
+    <t>祝日</t>
+  </si>
+  <si>
+    <t>しゅくじつ</t>
+  </si>
+  <si>
+    <t>手術</t>
+  </si>
+  <si>
+    <t>しゅじゅつ(する)</t>
+  </si>
+  <si>
+    <t>手段</t>
+  </si>
+  <si>
+    <t>しゅだん</t>
+  </si>
+  <si>
+    <t>主張</t>
+  </si>
+  <si>
+    <t>しゅちょう(する)</t>
+  </si>
+  <si>
+    <t>出勤</t>
+  </si>
+  <si>
+    <t>しゅっきん(する)</t>
+  </si>
+  <si>
+    <t>出身</t>
+  </si>
+  <si>
+    <t>しゅっしん</t>
+  </si>
+  <si>
+    <t>種類</t>
+  </si>
+  <si>
+    <t>しゅるい</t>
+  </si>
+  <si>
+    <t>使用</t>
+  </si>
+  <si>
+    <t>しよう(する)</t>
+  </si>
+  <si>
+    <t>紹介</t>
+  </si>
+  <si>
+    <t>しょうかい(する)</t>
+  </si>
+  <si>
+    <t>招待</t>
+  </si>
+  <si>
+    <t>しょうたい(する)</t>
+  </si>
+  <si>
+    <t>消費</t>
+  </si>
+  <si>
+    <t>しょうひ(する)</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>しょうひん</t>
+  </si>
+  <si>
+    <t>証明</t>
+  </si>
+  <si>
+    <t>しょうめい(する)</t>
+  </si>
+  <si>
+    <t>正面</t>
+  </si>
+  <si>
+    <t>しょうめん</t>
+  </si>
+  <si>
+    <t>将来</t>
+  </si>
+  <si>
+    <t>しょうらい</t>
+  </si>
+  <si>
+    <t>食欲</t>
+  </si>
+  <si>
+    <t>しょくよく</t>
+  </si>
+  <si>
+    <t>食器</t>
+  </si>
+  <si>
+    <t>しょっき</t>
+  </si>
+  <si>
+    <t>書類</t>
+  </si>
+  <si>
+    <t>しょるい</t>
+  </si>
+  <si>
+    <t>資料</t>
+  </si>
+  <si>
+    <t>しりょう</t>
+  </si>
+  <si>
+    <t>進学</t>
+  </si>
+  <si>
+    <t>しんがく(する)</t>
+  </si>
+  <si>
+    <t>進行</t>
+  </si>
+  <si>
+    <t>しんこう(する)</t>
+  </si>
+  <si>
+    <t>申請</t>
+  </si>
+  <si>
+    <t>しんせい(する)</t>
+  </si>
+  <si>
+    <t>心臓</t>
+  </si>
+  <si>
+    <t>しんぞう</t>
+  </si>
+  <si>
+    <t>心配</t>
+  </si>
+  <si>
+    <t>しんぱい(する)</t>
+  </si>
+  <si>
+    <t>進歩</t>
+  </si>
+  <si>
+    <t>しんぽ(する)</t>
+  </si>
+  <si>
+    <t>森林</t>
+  </si>
+  <si>
+    <t>しんりん</t>
+  </si>
+  <si>
+    <t>時期</t>
+  </si>
+  <si>
+    <t>じき</t>
+  </si>
+  <si>
+    <t>時給</t>
+  </si>
+  <si>
+    <t>じきゅう</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>じけん</t>
+  </si>
+  <si>
+    <t>時刻</t>
+  </si>
+  <si>
+    <t>じこく</t>
+  </si>
+  <si>
+    <t>持参</t>
+  </si>
+  <si>
+    <t>じさん(する)</t>
+  </si>
+  <si>
+    <t>事情</t>
+  </si>
+  <si>
+    <t>じじょう</t>
+  </si>
+  <si>
+    <t>自信</t>
+  </si>
+  <si>
+    <t>じしん</t>
+  </si>
+  <si>
+    <t>時代</t>
+  </si>
+  <si>
+    <t>じだい</t>
+  </si>
+  <si>
+    <t>自宅</t>
+  </si>
+  <si>
+    <t>じたく</t>
+  </si>
+  <si>
+    <t>実家</t>
+  </si>
+  <si>
+    <t>じっか</t>
+  </si>
+  <si>
+    <t>実験</t>
+  </si>
+  <si>
+    <t>じっけん(する)</t>
+  </si>
+  <si>
+    <t>実行</t>
+  </si>
+  <si>
+    <t>じっこう(する)</t>
+  </si>
+  <si>
+    <t>実用</t>
+  </si>
+  <si>
+    <t>じつよう</t>
+  </si>
+  <si>
+    <t>実力</t>
+  </si>
+  <si>
+    <t>じつりょく</t>
+  </si>
+  <si>
+    <t>自慢</t>
+  </si>
+  <si>
+    <t>じまん(する)</t>
+  </si>
+  <si>
+    <t>事務</t>
+  </si>
+  <si>
+    <t>じむ</t>
+  </si>
+  <si>
+    <t>渋滞</t>
+  </si>
+  <si>
+    <t>じゅうたい(する)</t>
+  </si>
+  <si>
+    <t>受験</t>
+  </si>
+  <si>
+    <t>じゅけん(する)</t>
+  </si>
+  <si>
+    <t>需要</t>
+  </si>
+  <si>
+    <t>じゅよう</t>
+  </si>
+  <si>
+    <t>順番</t>
+  </si>
+  <si>
+    <t>じゅんばん</t>
+  </si>
+  <si>
+    <t>準備</t>
+  </si>
+  <si>
+    <t>じゅんび(する)</t>
+  </si>
+  <si>
+    <t>上司</t>
+  </si>
+  <si>
+    <t>じょうし</t>
+  </si>
+  <si>
+    <t>乗車</t>
+  </si>
+  <si>
+    <t>じょうしゃ(する)</t>
+  </si>
+  <si>
+    <t>状態</t>
+  </si>
+  <si>
+    <t>じょうたい</t>
+  </si>
+  <si>
+    <t>冗談</t>
+  </si>
+  <si>
+    <t>じょうだん</t>
+  </si>
+  <si>
+    <t>女性</t>
+  </si>
+  <si>
+    <t>じょせい</t>
+  </si>
+  <si>
+    <t>神社</t>
+  </si>
+  <si>
+    <t>じんじゃ</t>
+  </si>
+  <si>
+    <t>人生</t>
+  </si>
+  <si>
+    <t>じんせい</t>
+  </si>
+  <si>
+    <t>人体</t>
+  </si>
+  <si>
+    <t>じんたい</t>
+  </si>
+  <si>
+    <t>睡眠</t>
+  </si>
+  <si>
+    <t>すいみん</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>すうがく</t>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
+    <t>すうじ</t>
+  </si>
+  <si>
+    <t>正解</t>
+  </si>
+  <si>
+    <t>せいかい(する)</t>
+  </si>
+  <si>
+    <t>制限</t>
+  </si>
+  <si>
+    <t>せいげん(する)</t>
+  </si>
+  <si>
+    <t>清掃</t>
+  </si>
+  <si>
+    <t>せいそう(する)</t>
+  </si>
+  <si>
+    <t>制服</t>
+  </si>
+  <si>
+    <t>せいふく</t>
+  </si>
+  <si>
+    <t>設備</t>
+  </si>
+  <si>
+    <t>せつび</t>
+  </si>
+  <si>
+    <t>先日</t>
+  </si>
+  <si>
+    <t>せんじつ</t>
+  </si>
+  <si>
+    <t>洗濯</t>
+  </si>
+  <si>
+    <t>せんたく(する)</t>
+  </si>
+  <si>
+    <t>宣伝</t>
+  </si>
+  <si>
+    <t>せんでん(する)</t>
+  </si>
+  <si>
+    <t>先輩</t>
+  </si>
+  <si>
+    <t>せんぱい</t>
+  </si>
+  <si>
+    <t>専門</t>
+  </si>
+  <si>
+    <t>せんもん</t>
+  </si>
+  <si>
+    <t>全員</t>
+  </si>
+  <si>
+    <t>ぜんいん</t>
+  </si>
+  <si>
+    <t>前後</t>
+  </si>
+  <si>
+    <t>ぜんご(する)</t>
+  </si>
+  <si>
+    <t>前半</t>
+  </si>
+  <si>
+    <t>ぜんはん</t>
+  </si>
+  <si>
+    <t>倉庫</t>
+  </si>
+  <si>
+    <t>そうこ</t>
+  </si>
+  <si>
+    <t>掃除</t>
+  </si>
+  <si>
+    <t>そうじ(する)</t>
+  </si>
+  <si>
+    <t>送信</t>
+  </si>
+  <si>
+    <t>そうしん(する)</t>
+  </si>
+  <si>
+    <t>想像</t>
+  </si>
+  <si>
+    <t>そうぞう(する)</t>
+  </si>
+  <si>
+    <t>早朝</t>
+  </si>
+  <si>
+    <t>そうちょう</t>
+  </si>
+  <si>
+    <t>相当</t>
+  </si>
+  <si>
+    <t>そうとう(する)</t>
+  </si>
+  <si>
+    <t>送料</t>
+  </si>
+  <si>
+    <t>そうりょう</t>
+  </si>
+  <si>
+    <t>外側</t>
+  </si>
+  <si>
+    <t>そとがわ</t>
+  </si>
+  <si>
+    <t>尊敬</t>
+  </si>
+  <si>
+    <t>そんけい(する)</t>
+  </si>
+  <si>
+    <t>増加</t>
+  </si>
+  <si>
+    <t>ぞうか(する)</t>
+  </si>
+  <si>
+    <t>滞在</t>
+  </si>
+  <si>
+    <t>たいざい(する)</t>
+  </si>
+  <si>
+    <t>体操</t>
+  </si>
+  <si>
+    <t>たいそう(する)</t>
+  </si>
+  <si>
+    <t>大量</t>
+  </si>
+  <si>
+    <t>たいりょう</t>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>たいりょく</t>
+  </si>
+  <si>
+    <t>単語</t>
+  </si>
+  <si>
+    <t>たんご</t>
+  </si>
+  <si>
+    <t>誕生</t>
+  </si>
+  <si>
+    <t>たんじょう(する)</t>
+  </si>
+  <si>
+    <t>代金</t>
+  </si>
+  <si>
+    <t>だいきん</t>
+  </si>
+  <si>
+    <t>代表</t>
+  </si>
+  <si>
+    <t>だいひょう(する)</t>
+  </si>
+  <si>
+    <t>団体</t>
+  </si>
+  <si>
+    <t>だんたい</t>
+  </si>
+  <si>
+    <t>地下</t>
+  </si>
+  <si>
+    <t>ちか</t>
+  </si>
+  <si>
+    <t>遅刻</t>
+  </si>
+  <si>
+    <t>ちこく(する)</t>
+  </si>
+  <si>
+    <t>知識</t>
+  </si>
+  <si>
+    <t>ちしき</t>
+  </si>
+  <si>
+    <t>中心</t>
+  </si>
+  <si>
+    <t>ちゅうしん</t>
+  </si>
+  <si>
+    <t>中旬</t>
+  </si>
+  <si>
+    <t>ちゅうじゅん</t>
+  </si>
+  <si>
+    <t>注文</t>
+  </si>
+  <si>
+    <t>ちゅうもん(する)</t>
+  </si>
+  <si>
+    <t>調査</t>
+  </si>
+  <si>
+    <t>ちょうさ(する)</t>
+  </si>
+  <si>
+    <t>調子</t>
+  </si>
+  <si>
+    <t>ちょうし</t>
+  </si>
+  <si>
+    <t>頂上</t>
+  </si>
+  <si>
+    <t>ちょうじょう</t>
+  </si>
+  <si>
+    <t>通学</t>
+  </si>
+  <si>
+    <t>つうがく(する)</t>
+  </si>
+  <si>
+    <t>通勤</t>
+  </si>
+  <si>
+    <t>つうきん(する)</t>
+  </si>
+  <si>
+    <t>通訳</t>
+  </si>
+  <si>
+    <t>つうやく(する)</t>
+  </si>
+  <si>
+    <t>通路</t>
+  </si>
+  <si>
+    <t>つうろ</t>
+  </si>
+  <si>
+    <t>定員</t>
+  </si>
+  <si>
+    <t>ていいん</t>
+  </si>
+  <si>
+    <t>低下</t>
+  </si>
+  <si>
+    <t>ていか(する)</t>
+  </si>
+  <si>
+    <t>定期</t>
+  </si>
+  <si>
+    <t>ていき</t>
+  </si>
+  <si>
+    <t>停電</t>
+  </si>
+  <si>
+    <t>ていでん(する)</t>
+  </si>
+  <si>
+    <t>手帳</t>
+  </si>
+  <si>
+    <t>てちょう</t>
+  </si>
+  <si>
+    <t>鉄道</t>
+  </si>
+  <si>
+    <t>てつどう</t>
+  </si>
+  <si>
+    <t>手袋</t>
+  </si>
+  <si>
+    <t>てぶくろ</t>
+  </si>
+  <si>
+    <t>転勤</t>
+  </si>
+  <si>
+    <t>てんきん(する)</t>
+  </si>
+  <si>
+    <t>天井</t>
+  </si>
+  <si>
+    <t>てんじょう</t>
+  </si>
+  <si>
+    <t>店長</t>
+  </si>
+  <si>
+    <t>てんちょう</t>
+  </si>
+  <si>
+    <t>電球</t>
+  </si>
+  <si>
+    <t>でんきゅう</t>
+  </si>
+  <si>
+    <t>伝言</t>
+  </si>
+  <si>
+    <t>でんごん(する)</t>
+  </si>
+  <si>
+    <t>当日</t>
+  </si>
+  <si>
+    <t>とうじつ</t>
+  </si>
+  <si>
+    <t>登場</t>
+  </si>
+  <si>
+    <t>とうじょう(する)</t>
+  </si>
+  <si>
+    <t>到着</t>
+  </si>
+  <si>
+    <t>とうちゃく(する)</t>
+  </si>
+  <si>
+    <t>都会</t>
+  </si>
+  <si>
+    <t>とかい</t>
+  </si>
+  <si>
+    <t>特徴</t>
+  </si>
+  <si>
+    <t>とくちょう</t>
+  </si>
+  <si>
+    <t>登山</t>
+  </si>
+  <si>
+    <t>とざん(する)</t>
+  </si>
+  <si>
+    <t>土地</t>
+  </si>
+  <si>
+    <t>とち</t>
+  </si>
+  <si>
+    <t>途中</t>
+  </si>
+  <si>
+    <t>とちゅう</t>
+  </si>
+  <si>
+    <t>徒歩</t>
+  </si>
+  <si>
+    <t>とほ</t>
+  </si>
+  <si>
+    <t>同時</t>
+  </si>
+  <si>
+    <t>どうじ</t>
+  </si>
+  <si>
+    <t>独立</t>
+  </si>
+  <si>
+    <t>どくりつ(する)</t>
+  </si>
+  <si>
+    <t>努力</t>
+  </si>
+  <si>
+    <t>どりょく(する)</t>
+  </si>
+  <si>
+    <t>荷物</t>
+  </si>
+  <si>
+    <t>にもつ</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>ないよう</t>
+  </si>
+  <si>
+    <t>仲間</t>
+  </si>
+  <si>
+    <t>なかま</t>
+  </si>
+  <si>
+    <t>中身</t>
+  </si>
+  <si>
+    <t>なかみ</t>
+  </si>
+  <si>
+    <t>納得</t>
+  </si>
+  <si>
+    <t>なっとく(する)</t>
+  </si>
+  <si>
+    <t>日時</t>
+  </si>
+  <si>
+    <t>にちじ</t>
+  </si>
+  <si>
+    <t>日常</t>
+  </si>
+  <si>
+    <t>にちじょう</t>
+  </si>
+  <si>
+    <t>日光</t>
+  </si>
+  <si>
+    <t>にっこう</t>
+  </si>
+  <si>
+    <t>日程</t>
+  </si>
+  <si>
+    <t>にってい</t>
+  </si>
+  <si>
+    <t>入門</t>
+  </si>
+  <si>
+    <t>にゅうもん(する)</t>
+  </si>
+  <si>
+    <t>入力</t>
+  </si>
+  <si>
+    <t>にゅうりょく(する)</t>
+  </si>
+  <si>
+    <t>人気</t>
+  </si>
+  <si>
+    <t>にんき</t>
+  </si>
+  <si>
+    <t>人間</t>
+  </si>
+  <si>
+    <t>にんげん</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>にんずう</t>
+  </si>
+  <si>
+    <t>値段</t>
+  </si>
+  <si>
+    <t>ねだん</t>
+  </si>
+  <si>
+    <t>寝坊</t>
+  </si>
+  <si>
+    <t>ねぼう(する)</t>
+  </si>
+  <si>
+    <t>年齢</t>
+  </si>
+  <si>
+    <t>ねんれい</t>
+  </si>
+  <si>
+    <t>農業</t>
+  </si>
+  <si>
+    <t>のうぎょう</t>
+  </si>
+  <si>
+    <t>配達</t>
+  </si>
+  <si>
+    <t>はいたつ(する)</t>
+  </si>
+  <si>
+    <t>発音</t>
+  </si>
+  <si>
+    <t>はつおん(する)</t>
+  </si>
+  <si>
+    <t>発生</t>
+  </si>
+  <si>
+    <t>はっせい(する)</t>
+  </si>
+  <si>
+    <t>発展</t>
+  </si>
+  <si>
+    <t>はってん(する)</t>
+  </si>
+  <si>
+    <t>発売</t>
+  </si>
+  <si>
+    <t>はつばい(する)</t>
+  </si>
+  <si>
+    <t>売店</t>
+  </si>
+  <si>
+    <t>ばいてん</t>
+  </si>
+  <si>
+    <t>比較</t>
+  </si>
+  <si>
+    <t>ひかく(する)</t>
+  </si>
+  <si>
+    <t>非常</t>
+  </si>
+  <si>
+    <t>ひじょう</t>
+  </si>
+  <si>
+    <t>否定</t>
+  </si>
+  <si>
+    <t>ひてい(する)</t>
+  </si>
+  <si>
+    <t>人々</t>
+  </si>
+  <si>
+    <t>ひとびと</t>
+  </si>
+  <si>
+    <t>避難</t>
+  </si>
+  <si>
+    <t>ひなん(する)</t>
+  </si>
+  <si>
+    <t>秘密</t>
+  </si>
+  <si>
+    <t>ひみつ</t>
+  </si>
+  <si>
+    <t>表紙</t>
+  </si>
+  <si>
+    <t>ひょうし</t>
+  </si>
+  <si>
+    <t>表面</t>
+  </si>
+  <si>
+    <t>ひょうめん</t>
+  </si>
+  <si>
+    <t>昼間</t>
+  </si>
+  <si>
+    <t>ひるま</t>
+  </si>
+  <si>
+    <t>夫婦</t>
+  </si>
+  <si>
+    <t>ふうふ</t>
+  </si>
+  <si>
+    <t>複数</t>
+  </si>
+  <si>
+    <t>ふくすう</t>
+  </si>
+  <si>
+    <t>服装</t>
+  </si>
+  <si>
+    <t>ふくそう</t>
+  </si>
+  <si>
+    <t>腹痛</t>
+  </si>
+  <si>
+    <t>ふくつう</t>
+  </si>
+  <si>
+    <t>不足</t>
+  </si>
+  <si>
+    <t>ふそく(する)</t>
+  </si>
+  <si>
+    <t>古着</t>
+  </si>
+  <si>
+    <t>ふるぎ</t>
+  </si>
+  <si>
+    <t>部下</t>
+  </si>
+  <si>
+    <t>ぶか</t>
+  </si>
+  <si>
+    <t>部品</t>
+  </si>
+  <si>
+    <t>ぶひん</t>
+  </si>
+  <si>
+    <t>部分</t>
+  </si>
+  <si>
+    <t>ぶぶん</t>
+  </si>
+  <si>
+    <t>分類</t>
+  </si>
+  <si>
+    <t>ぶんるい(する)</t>
+  </si>
+  <si>
+    <t>変化</t>
+  </si>
+  <si>
+    <t>へんか(する)</t>
+  </si>
+  <si>
+    <t>弁当</t>
+  </si>
+  <si>
+    <t>べんとう</t>
+  </si>
+  <si>
+    <t>方向</t>
+  </si>
+  <si>
+    <t>ほうこう</t>
+  </si>
+  <si>
+    <t>報告</t>
+  </si>
+  <si>
+    <t>ほうこく(する)</t>
+  </si>
+  <si>
+    <t>包丁</t>
+  </si>
+  <si>
+    <t>ほうちょう</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>ほうほう</t>
+  </si>
+  <si>
+    <t>訪問</t>
+  </si>
+  <si>
+    <t>ほうもん(する)</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>ほぞん(する)</t>
+  </si>
+  <si>
+    <t>歩道</t>
+  </si>
+  <si>
+    <t>ほどう</t>
+  </si>
+  <si>
+    <t>本日</t>
+  </si>
+  <si>
+    <t>ほんじつ</t>
+  </si>
+  <si>
+    <t>本棚</t>
+  </si>
+  <si>
+    <t>ほんだな</t>
+  </si>
+  <si>
+    <t>本当</t>
+  </si>
+  <si>
+    <t>ほんとう</t>
+  </si>
+  <si>
+    <t>貿易</t>
+  </si>
+  <si>
+    <t>ぼうえき(する)</t>
+  </si>
+  <si>
+    <t>帽子</t>
+  </si>
+  <si>
+    <t>ぼうし</t>
+  </si>
+  <si>
+    <t>募集</t>
+  </si>
+  <si>
+    <t>ぼしゅう(する)</t>
+  </si>
+  <si>
+    <t>窓口</t>
+  </si>
+  <si>
+    <t>まどぐち</t>
+  </si>
+  <si>
+    <t>満員</t>
+  </si>
+  <si>
+    <t>まんいん</t>
+  </si>
+  <si>
+    <t>満足</t>
+  </si>
+  <si>
+    <t>まんぞく(する)</t>
+  </si>
+  <si>
+    <t>見方</t>
+  </si>
+  <si>
+    <t>みかた</t>
+  </si>
+  <si>
+    <t>見本</t>
+  </si>
+  <si>
+    <t>みほん</t>
+  </si>
+  <si>
+    <t>虫歯</t>
+  </si>
+  <si>
+    <t>むしば</t>
+  </si>
+  <si>
+    <t>息子</t>
+  </si>
+  <si>
+    <t>むすこ</t>
+  </si>
+  <si>
+    <t>無料</t>
+  </si>
+  <si>
+    <t>むりょう</t>
+  </si>
+  <si>
+    <t>名刺</t>
+  </si>
+  <si>
+    <t>めいし</t>
+  </si>
+  <si>
+    <t>命令</t>
+  </si>
+  <si>
+    <t>めいれい(する)</t>
+  </si>
+  <si>
+    <t>免許</t>
+  </si>
+  <si>
+    <t>めんきょ</t>
+  </si>
+  <si>
+    <t>面接</t>
+  </si>
+  <si>
+    <t>めんせつ(する)</t>
+  </si>
+  <si>
+    <t>目標</t>
+  </si>
+  <si>
+    <t>もくひょう</t>
+  </si>
+  <si>
+    <t>文字</t>
+  </si>
+  <si>
+    <t>もじ</t>
+  </si>
+  <si>
+    <t>物語</t>
+  </si>
+  <si>
+    <t>ものがたり</t>
+  </si>
+  <si>
+    <t>文句</t>
+  </si>
+  <si>
+    <t>もんく</t>
+  </si>
+  <si>
+    <t>夜間</t>
+  </si>
+  <si>
+    <t>やかん</t>
+  </si>
+  <si>
+    <t>野球</t>
+  </si>
+  <si>
+    <t>やきゅう</t>
+  </si>
+  <si>
+    <t>役割</t>
+  </si>
+  <si>
+    <t>やくわり</t>
+  </si>
+  <si>
+    <t>家賃</t>
+  </si>
+  <si>
+    <t>やちん</t>
+  </si>
+  <si>
+    <t>屋根</t>
+  </si>
+  <si>
+    <t>やね</t>
+  </si>
+  <si>
+    <t>優勝</t>
+  </si>
+  <si>
+    <t>ゆうしょう(する)</t>
+  </si>
+  <si>
+    <t>友情</t>
+  </si>
+  <si>
+    <t>ゆうじょう</t>
+  </si>
+  <si>
     <t>えんそう</t>
   </si>
   <si>
-    <t>花壇</t>
-  </si>
-  <si>
-    <t>かだん</t>
-  </si>
-  <si>
-    <t>家庭</t>
-  </si>
-  <si>
-    <t>かてい</t>
-  </si>
-  <si>
-    <t>花瓶</t>
-  </si>
-  <si>
-    <t>かびん</t>
-  </si>
-  <si>
-    <t>髪型</t>
-  </si>
-  <si>
-    <t>かみがた</t>
-  </si>
-  <si>
-    <t>観客</t>
-  </si>
-  <si>
-    <t>かんきゃく</t>
-  </si>
-  <si>
-    <t>歓迎</t>
-  </si>
-  <si>
     <t>かんげい</t>
   </si>
   <si>
-    <t>感激</t>
-  </si>
-  <si>
     <t>かんげき</t>
   </si>
   <si>
-    <t>観光</t>
-  </si>
-  <si>
     <t>かんこう</t>
   </si>
   <si>
-    <t>看護</t>
-  </si>
-  <si>
     <t>かんご</t>
   </si>
   <si>
-    <t>乾燥</t>
-  </si>
-  <si>
-    <t>かんそう</t>
-  </si>
-  <si>
-    <t>感想</t>
-  </si>
-  <si>
-    <t>館内</t>
-  </si>
-  <si>
-    <t>かんない</t>
-  </si>
-  <si>
-    <t>画家</t>
-  </si>
-  <si>
-    <t>がか</t>
-  </si>
-  <si>
-    <t>学部</t>
-  </si>
-  <si>
-    <t>がくぶ</t>
-  </si>
-  <si>
-    <t>学期</t>
-  </si>
-  <si>
-    <t>がっき</t>
-  </si>
-  <si>
-    <t>楽器</t>
-  </si>
-  <si>
-    <t>機械</t>
-  </si>
-  <si>
-    <t>きかい</t>
-  </si>
-  <si>
-    <t>企業</t>
-  </si>
-  <si>
-    <t>きぎょう</t>
-  </si>
-  <si>
-    <t>記事</t>
-  </si>
-  <si>
-    <t>きじ</t>
-  </si>
-  <si>
-    <t>基礎</t>
-  </si>
-  <si>
-    <t>きそ</t>
-  </si>
-  <si>
-    <t>規則</t>
-  </si>
-  <si>
-    <t>きそく</t>
-  </si>
-  <si>
-    <t>帰宅</t>
-  </si>
-  <si>
     <t>きたく</t>
   </si>
   <si>
-    <t>切符</t>
-  </si>
-  <si>
-    <t>きっぷ</t>
-  </si>
-  <si>
-    <t>記念</t>
-  </si>
-  <si>
     <t>きねん</t>
   </si>
   <si>
-    <t>競争</t>
-  </si>
-  <si>
     <t>きょうそう</t>
   </si>
   <si>
-    <t>距離</t>
-  </si>
-  <si>
-    <t>きょり</t>
-  </si>
-  <si>
-    <t>近所</t>
-  </si>
-  <si>
-    <t>きんじょ</t>
-  </si>
-  <si>
-    <t>草花</t>
-  </si>
-  <si>
-    <t>くさばな</t>
-  </si>
-  <si>
-    <t>工夫</t>
-  </si>
-  <si>
     <t>くふう</t>
   </si>
   <si>
-    <t>区別</t>
-  </si>
-  <si>
     <t>くべつ</t>
   </si>
   <si>
-    <t>苦労</t>
-  </si>
-  <si>
     <t>くろう</t>
   </si>
   <si>
-    <t>訓練</t>
-  </si>
-  <si>
     <t>くんれん</t>
   </si>
   <si>
-    <t>偶然</t>
-  </si>
-  <si>
-    <t>ぐうぜん</t>
-  </si>
-  <si>
-    <t>経営</t>
-  </si>
-  <si>
     <t>けいえい</t>
   </si>
   <si>
-    <t>警官</t>
-  </si>
-  <si>
-    <t>けいかん</t>
-  </si>
-  <si>
-    <t>経済</t>
-  </si>
-  <si>
-    <t>けいざい</t>
-  </si>
-  <si>
     <t>軽油</t>
   </si>
   <si>
     <t>けいゆ</t>
   </si>
   <si>
-    <t>結婚</t>
-  </si>
-  <si>
     <t>けっこん</t>
   </si>
   <si>
-    <t>欠点</t>
-  </si>
-  <si>
-    <t>けってん</t>
-  </si>
-  <si>
-    <t>建設</t>
-  </si>
-  <si>
     <t>けんせつ</t>
   </si>
   <si>
-    <t>芸術</t>
-  </si>
-  <si>
-    <t>げいじゅつ</t>
-  </si>
-  <si>
-    <t>原稿</t>
-  </si>
-  <si>
-    <t>げんこう</t>
-  </si>
-  <si>
-    <t>減少</t>
-  </si>
-  <si>
     <t>げんしょう</t>
   </si>
   <si>
-    <t>講演</t>
-  </si>
-  <si>
     <t>こうえん</t>
   </si>
   <si>
-    <t>効果</t>
-  </si>
-  <si>
-    <t>こうか</t>
-  </si>
-  <si>
-    <t>講義</t>
-  </si>
-  <si>
     <t>こうぎ</t>
   </si>
   <si>
-    <t>後半</t>
-  </si>
-  <si>
-    <t>こうはん</t>
-  </si>
-  <si>
-    <t>後方</t>
-  </si>
-  <si>
-    <t>こうほう</t>
-  </si>
-  <si>
-    <t>交流</t>
-  </si>
-  <si>
     <t>こうりゅう</t>
   </si>
   <si>
-    <t>混雑</t>
-  </si>
-  <si>
     <t>こんざつ</t>
   </si>
   <si>
-    <t>財布</t>
-  </si>
-  <si>
-    <t>さいふ</t>
-  </si>
-  <si>
-    <t>昨夜</t>
-  </si>
-  <si>
-    <t>さくや</t>
-  </si>
-  <si>
-    <t>算数</t>
-  </si>
-  <si>
-    <t>さんすう</t>
-  </si>
-  <si>
-    <t>賛成</t>
-  </si>
-  <si>
     <t>さんせい</t>
   </si>
   <si>
-    <t>材料</t>
-  </si>
-  <si>
-    <t>ざいりょう</t>
-  </si>
-  <si>
-    <t>雑誌</t>
-  </si>
-  <si>
-    <t>ざっし</t>
-  </si>
-  <si>
-    <t>資源</t>
-  </si>
-  <si>
-    <t>しげん</t>
-  </si>
-  <si>
-    <t>姿勢</t>
-  </si>
-  <si>
-    <t>しせい</t>
-  </si>
-  <si>
-    <t>指導</t>
-  </si>
-  <si>
     <t>しどう</t>
   </si>
   <si>
-    <t>始発</t>
-  </si>
-  <si>
-    <t>しはつ</t>
-  </si>
-  <si>
-    <t>芝生</t>
-  </si>
-  <si>
-    <t>しばふ</t>
-  </si>
-  <si>
-    <t>氏名</t>
-  </si>
-  <si>
-    <t>しめい</t>
-  </si>
-  <si>
-    <t>習慣</t>
-  </si>
-  <si>
-    <t>しゅうかん</t>
-  </si>
-  <si>
-    <t>就職</t>
-  </si>
-  <si>
     <t>しゅうしょく</t>
   </si>
   <si>
-    <t>手術</t>
-  </si>
-  <si>
     <t>しゅじゅつ</t>
   </si>
   <si>
-    <t>手段</t>
-  </si>
-  <si>
-    <t>しゅだん</t>
-  </si>
-  <si>
-    <t>主張</t>
-  </si>
-  <si>
     <t>しゅちょう</t>
   </si>
   <si>
-    <t>出勤</t>
-  </si>
-  <si>
     <t>しゅっきん</t>
   </si>
   <si>
-    <t>出身</t>
-  </si>
-  <si>
-    <t>しゅっしん</t>
-  </si>
-  <si>
-    <t>紹介</t>
-  </si>
-  <si>
     <t>しょうかい</t>
   </si>
   <si>
-    <t>招待</t>
-  </si>
-  <si>
     <t>しょうたい</t>
-  </si>
-  <si>
-    <t>消費</t>
   </si>
   <si>
     <t>しょうひ</t>
@@ -1690,10 +3707,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D395"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -1823,495 +3840,3055 @@
         <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -2323,9 +6900,642 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D75"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="12.1111111111111" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.3333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.0740740740741" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.58333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.3333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.2222222222222" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88888888888889" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
@@ -2347,50 +7557,50 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>794</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/selenium-study/data/vocab_list.xlsx
+++ b/selenium-study/data/vocab_list.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8555" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="N2_1文字" sheetId="1" r:id="rId1"/>
     <sheet name="N2_2文字_名詞" sheetId="2" r:id="rId2"/>
-    <sheet name="N2_2文字_名詞_old" sheetId="4" r:id="rId3"/>
-    <sheet name="test" sheetId="3" r:id="rId4"/>
+    <sheet name="processed_0921" sheetId="4" r:id="rId3"/>
+    <sheet name="OLD" sheetId="5" r:id="rId4"/>
+    <sheet name="test" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,16 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="825">
-  <si>
-    <t>語彙</t>
-  </si>
-  <si>
-    <t>読み方</t>
-  </si>
-  <si>
-    <t>意味</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1072">
   <si>
     <t>word</t>
   </si>
@@ -51,6 +43,756 @@
   </si>
   <si>
     <t>types</t>
+  </si>
+  <si>
+    <t>sentence_ja</t>
+  </si>
+  <si>
+    <t>sentence_en</t>
+  </si>
+  <si>
+    <t>穴</t>
+  </si>
+  <si>
+    <t>あな</t>
+  </si>
+  <si>
+    <t>雲</t>
+  </si>
+  <si>
+    <t>くも</t>
+  </si>
+  <si>
+    <t>畑</t>
+  </si>
+  <si>
+    <t>はたけ</t>
+  </si>
+  <si>
+    <t>油</t>
+  </si>
+  <si>
+    <t>あぶら</t>
+  </si>
+  <si>
+    <t>煙</t>
+  </si>
+  <si>
+    <t>けむり</t>
+  </si>
+  <si>
+    <t>羽</t>
+  </si>
+  <si>
+    <t>はね</t>
+  </si>
+  <si>
+    <t>胃</t>
+  </si>
+  <si>
+    <t>い</t>
+  </si>
+  <si>
+    <t>塩</t>
+  </si>
+  <si>
+    <t>しお</t>
+  </si>
+  <si>
+    <t>幅</t>
+  </si>
+  <si>
+    <t>はば</t>
+  </si>
+  <si>
+    <t>息</t>
+  </si>
+  <si>
+    <t>いき</t>
+  </si>
+  <si>
+    <t>島</t>
+  </si>
+  <si>
+    <t>しま</t>
+  </si>
+  <si>
+    <t>膝</t>
+  </si>
+  <si>
+    <t>ひざ</t>
+  </si>
+  <si>
+    <t>裏</t>
+  </si>
+  <si>
+    <t>うら</t>
+  </si>
+  <si>
+    <t>城</t>
+  </si>
+  <si>
+    <t>しろ</t>
+  </si>
+  <si>
+    <t>袋</t>
+  </si>
+  <si>
+    <t>ふくろ</t>
+  </si>
+  <si>
+    <t>噂</t>
+  </si>
+  <si>
+    <t>うわさ</t>
+  </si>
+  <si>
+    <t>隅</t>
+  </si>
+  <si>
+    <t>すみ</t>
+  </si>
+  <si>
+    <t>骨</t>
+  </si>
+  <si>
+    <t>ほね</t>
+  </si>
+  <si>
+    <t>餌</t>
+  </si>
+  <si>
+    <t>えさ</t>
+  </si>
+  <si>
+    <t>咳</t>
+  </si>
+  <si>
+    <t>せき</t>
+  </si>
+  <si>
+    <t>棒</t>
+  </si>
+  <si>
+    <t>ぼう</t>
+  </si>
+  <si>
+    <t>枝</t>
+  </si>
+  <si>
+    <t>えだ</t>
+  </si>
+  <si>
+    <t>底</t>
+  </si>
+  <si>
+    <t>そこ</t>
+  </si>
+  <si>
+    <t>孫</t>
+  </si>
+  <si>
+    <t>まご</t>
+  </si>
+  <si>
+    <t>襟</t>
+  </si>
+  <si>
+    <t>えり</t>
+  </si>
+  <si>
+    <t>像</t>
+  </si>
+  <si>
+    <t>ぞう</t>
+  </si>
+  <si>
+    <t>街</t>
+  </si>
+  <si>
+    <t>まち</t>
+  </si>
+  <si>
+    <t>奥</t>
+  </si>
+  <si>
+    <t>おく</t>
+  </si>
+  <si>
+    <t>旅</t>
+  </si>
+  <si>
+    <t>たび</t>
+  </si>
+  <si>
+    <t>湖</t>
+  </si>
+  <si>
+    <t>みずうみ</t>
+  </si>
+  <si>
+    <t>親</t>
+  </si>
+  <si>
+    <t>おや</t>
+  </si>
+  <si>
+    <t>妻</t>
+  </si>
+  <si>
+    <t>つま</t>
+  </si>
+  <si>
+    <t>娘</t>
+  </si>
+  <si>
+    <t>むすめ</t>
+  </si>
+  <si>
+    <t>課</t>
+  </si>
+  <si>
+    <t>か</t>
+  </si>
+  <si>
+    <t>毒</t>
+  </si>
+  <si>
+    <t>どく</t>
+  </si>
+  <si>
+    <t>胸</t>
+  </si>
+  <si>
+    <t>むね</t>
+  </si>
+  <si>
+    <t>数</t>
+  </si>
+  <si>
+    <t>かず</t>
+  </si>
+  <si>
+    <t>謎</t>
+  </si>
+  <si>
+    <t>なぞ</t>
+  </si>
+  <si>
+    <t>床</t>
+  </si>
+  <si>
+    <t>ゆか</t>
+  </si>
+  <si>
+    <t>形</t>
+  </si>
+  <si>
+    <t>かたち</t>
+  </si>
+  <si>
+    <t>鍋</t>
+  </si>
+  <si>
+    <t>なべ</t>
+  </si>
+  <si>
+    <t>夢</t>
+  </si>
+  <si>
+    <t>ゆめ</t>
+  </si>
+  <si>
+    <t>壁</t>
+  </si>
+  <si>
+    <t>かべ</t>
+  </si>
+  <si>
+    <t>波</t>
+  </si>
+  <si>
+    <t>なみ</t>
+  </si>
+  <si>
+    <t>寮</t>
+  </si>
+  <si>
+    <t>りょう</t>
+  </si>
+  <si>
+    <t>雷</t>
+  </si>
+  <si>
+    <t>かみなり</t>
+  </si>
+  <si>
+    <t>涙</t>
+  </si>
+  <si>
+    <t>なみだ</t>
+  </si>
+  <si>
+    <t>量</t>
+  </si>
+  <si>
+    <t>皮</t>
+  </si>
+  <si>
+    <t>かわ</t>
+  </si>
+  <si>
+    <t>庭</t>
+  </si>
+  <si>
+    <t>にわ</t>
+  </si>
+  <si>
+    <t>列</t>
+  </si>
+  <si>
+    <t>れつ</t>
+  </si>
+  <si>
+    <t>缶</t>
+  </si>
+  <si>
+    <t>かん</t>
+  </si>
+  <si>
+    <t>熱</t>
+  </si>
+  <si>
+    <t>ねつ</t>
+  </si>
+  <si>
+    <t>曲</t>
+  </si>
+  <si>
+    <t>きょく</t>
+  </si>
+  <si>
+    <t>箸</t>
+  </si>
+  <si>
+    <t>はし</t>
+  </si>
+  <si>
+    <t>汗</t>
+  </si>
+  <si>
+    <t>あせ</t>
+  </si>
+  <si>
+    <t>札</t>
+  </si>
+  <si>
+    <t>さつ / ふだ</t>
+  </si>
+  <si>
+    <t>根</t>
+  </si>
+  <si>
+    <t>ね</t>
+  </si>
+  <si>
+    <t>宛</t>
+  </si>
+  <si>
+    <t>あて</t>
+  </si>
+  <si>
+    <t>舌</t>
+  </si>
+  <si>
+    <t>した</t>
+  </si>
+  <si>
+    <t>脳</t>
+  </si>
+  <si>
+    <t>のう</t>
+  </si>
+  <si>
+    <t>板</t>
+  </si>
+  <si>
+    <t>いた</t>
+  </si>
+  <si>
+    <t>質</t>
+  </si>
+  <si>
+    <t>しつ</t>
+  </si>
+  <si>
+    <t>端</t>
+  </si>
+  <si>
+    <t>運</t>
+  </si>
+  <si>
+    <t>うん</t>
+  </si>
+  <si>
+    <t>賞</t>
+  </si>
+  <si>
+    <t>しょう</t>
+  </si>
+  <si>
+    <t>恥</t>
+  </si>
+  <si>
+    <t>はじ</t>
+  </si>
+  <si>
+    <t>縁</t>
+  </si>
+  <si>
+    <t>えん</t>
+  </si>
+  <si>
+    <t>芯</t>
+  </si>
+  <si>
+    <t>しん</t>
+  </si>
+  <si>
+    <t>鉢</t>
+  </si>
+  <si>
+    <t>はち</t>
+  </si>
+  <si>
+    <t>沖</t>
+  </si>
+  <si>
+    <t>おき</t>
+  </si>
+  <si>
+    <t>情</t>
+  </si>
+  <si>
+    <t>じょう</t>
+  </si>
+  <si>
+    <t>蜂</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>姿</t>
+  </si>
+  <si>
+    <t>すがた</t>
+  </si>
+  <si>
+    <t>判</t>
+  </si>
+  <si>
+    <t>はん</t>
+  </si>
+  <si>
+    <t>革</t>
+  </si>
+  <si>
+    <t>裾</t>
+  </si>
+  <si>
+    <t>すそ</t>
+  </si>
+  <si>
+    <t>便</t>
+  </si>
+  <si>
+    <t>びん</t>
+  </si>
+  <si>
+    <t>勘</t>
+  </si>
+  <si>
+    <t>説</t>
+  </si>
+  <si>
+    <t>せつ</t>
+  </si>
+  <si>
+    <t>幕</t>
+  </si>
+  <si>
+    <t>まく</t>
+  </si>
+  <si>
+    <t>害</t>
+  </si>
+  <si>
+    <t>がい</t>
+  </si>
+  <si>
+    <t>損</t>
+  </si>
+  <si>
+    <t>そん</t>
+  </si>
+  <si>
+    <t>溝</t>
+  </si>
+  <si>
+    <t>みぞ</t>
+  </si>
+  <si>
+    <t>絹</t>
+  </si>
+  <si>
+    <t>きぬ</t>
+  </si>
+  <si>
+    <t>種</t>
+  </si>
+  <si>
+    <t>たね</t>
+  </si>
+  <si>
+    <t>紫</t>
+  </si>
+  <si>
+    <t>むらさき</t>
+  </si>
+  <si>
+    <t>客</t>
+  </si>
+  <si>
+    <t>きゃく</t>
+  </si>
+  <si>
+    <t>玉</t>
+  </si>
+  <si>
+    <t>たま</t>
+  </si>
+  <si>
+    <t>元</t>
+  </si>
+  <si>
+    <t>もと</t>
+  </si>
+  <si>
+    <t>毛</t>
+  </si>
+  <si>
+    <t>け</t>
+  </si>
+  <si>
+    <t>蝶</t>
+  </si>
+  <si>
+    <t>ちょう</t>
+  </si>
+  <si>
+    <t>桃</t>
+  </si>
+  <si>
+    <t>もも</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>けん</t>
+  </si>
+  <si>
+    <t>翼</t>
+  </si>
+  <si>
+    <t>つばさ</t>
+  </si>
+  <si>
+    <t>役</t>
+  </si>
+  <si>
+    <t>やく</t>
+  </si>
+  <si>
+    <t>券</t>
+  </si>
+  <si>
+    <t>粒</t>
+  </si>
+  <si>
+    <t>つぶ</t>
+  </si>
+  <si>
+    <t>約</t>
+  </si>
+  <si>
+    <t>劇</t>
+  </si>
+  <si>
+    <t>げき</t>
+  </si>
+  <si>
+    <t>敵</t>
+  </si>
+  <si>
+    <t>てき</t>
+  </si>
+  <si>
+    <t>奴</t>
+  </si>
+  <si>
+    <t>やつ</t>
+  </si>
+  <si>
+    <t>暦</t>
+  </si>
+  <si>
+    <t>こよみ</t>
+  </si>
+  <si>
+    <t>鉄</t>
+  </si>
+  <si>
+    <t>てつ</t>
+  </si>
+  <si>
+    <t>欄</t>
+  </si>
+  <si>
+    <t>らん</t>
+  </si>
+  <si>
+    <t>頃</t>
+  </si>
+  <si>
+    <t>ころ</t>
+  </si>
+  <si>
+    <t>梨</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>鮭</t>
+  </si>
+  <si>
+    <t>さけ</t>
+  </si>
+  <si>
+    <t>布</t>
+  </si>
+  <si>
+    <t>ぬの</t>
+  </si>
+  <si>
+    <t>□ 友人</t>
+  </si>
+  <si>
+    <t>ゆうじん</t>
+  </si>
+  <si>
+    <t>□ 流行</t>
+  </si>
+  <si>
+    <t>りゅうこう（する）</t>
+  </si>
+  <si>
+    <t>□ 郵送</t>
+  </si>
+  <si>
+    <t>ゆうそう（する）</t>
+  </si>
+  <si>
+    <t>□ 料金</t>
+  </si>
+  <si>
+    <t>りょうきん</t>
+  </si>
+  <si>
+    <t>□ 有料</t>
+  </si>
+  <si>
+    <t>ゆうりょう</t>
+  </si>
+  <si>
+    <t>□ 旅館</t>
+  </si>
+  <si>
+    <t>りょかん</t>
+  </si>
+  <si>
+    <t>□ 輸入</t>
+  </si>
+  <si>
+    <t>ゆにゅう（する）</t>
+  </si>
+  <si>
+    <t>□ 留守</t>
+  </si>
+  <si>
+    <t>るす</t>
+  </si>
+  <si>
+    <t>□ 容器</t>
+  </si>
+  <si>
+    <t>ようき</t>
+  </si>
+  <si>
+    <t>□ 廊下</t>
+  </si>
+  <si>
+    <t>ろうか</t>
+  </si>
+  <si>
+    <t>□ 用紙</t>
+  </si>
+  <si>
+    <t>ようし</t>
+  </si>
+  <si>
+    <t>□ 若者</t>
+  </si>
+  <si>
+    <t>わかもの</t>
+  </si>
+  <si>
+    <t>□ 翌日</t>
+  </si>
+  <si>
+    <t>よくじつ</t>
+  </si>
+  <si>
+    <t>□ 和食</t>
+  </si>
+  <si>
+    <t>わしょく</t>
+  </si>
+  <si>
+    <t>□ 予想</t>
+  </si>
+  <si>
+    <t>よそう（する）</t>
+  </si>
+  <si>
+    <t>□ 割合</t>
+  </si>
+  <si>
+    <t>わりあい</t>
+  </si>
+  <si>
+    <t>□ 来店</t>
+  </si>
+  <si>
+    <t>らいてん（する）</t>
+  </si>
+  <si>
+    <t>□ 割引</t>
+  </si>
+  <si>
+    <t>わりびき（する）</t>
   </si>
   <si>
     <t>合図</t>
@@ -3669,13 +4411,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.1111111111111" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.3333333333333" style="2" customWidth="1"/>
@@ -3687,7 +4429,7 @@
     <col min="8" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3696,6 +4438,895 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3707,10 +5338,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D395"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -3727,3168 +5358,160 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="2" t="s">
+    </row>
+    <row r="2" ht="14.4" spans="1:2">
+      <c r="A2" t="s">
         <v>218</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="2" t="s">
+    <row r="3" ht="14.4" spans="1:2">
+      <c r="A3" t="s">
         <v>220</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="2" t="s">
+    <row r="4" ht="14.4" spans="1:2">
+      <c r="A4" t="s">
         <v>222</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="2" t="s">
+    <row r="5" ht="14.4" spans="1:2">
+      <c r="A5" t="s">
         <v>224</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="2" t="s">
+    <row r="6" ht="14.4" spans="1:2">
+      <c r="A6" t="s">
         <v>226</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="2" t="s">
+    <row r="7" ht="14.4" spans="1:2">
+      <c r="A7" t="s">
         <v>228</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="2" t="s">
+    <row r="8" ht="14.4" spans="1:2">
+      <c r="A8" t="s">
         <v>230</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="2" t="s">
+    <row r="9" ht="14.4" spans="1:2">
+      <c r="A9" t="s">
         <v>232</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="2" t="s">
+    <row r="10" ht="14.4" spans="1:2">
+      <c r="A10" t="s">
         <v>234</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="2" t="s">
+    <row r="11" ht="14.4" spans="1:2">
+      <c r="A11" t="s">
         <v>236</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B11" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="2" t="s">
+    <row r="12" ht="14.4" spans="1:2">
+      <c r="A12" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B12" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="2" t="s">
+    <row r="13" ht="14.4" spans="1:2">
+      <c r="A13" t="s">
         <v>240</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="2" t="s">
+    <row r="14" ht="14.4" spans="1:2">
+      <c r="A14" t="s">
         <v>242</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="2" t="s">
+    <row r="15" ht="14.4" spans="1:2">
+      <c r="A15" t="s">
         <v>244</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B15" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="2" t="s">
+    <row r="16" ht="14.4" spans="1:2">
+      <c r="A16" t="s">
         <v>246</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B16" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="2" t="s">
+    <row r="17" ht="14.4" spans="1:2">
+      <c r="A17" t="s">
         <v>248</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B17" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="2" t="s">
+    <row r="18" ht="14.4" spans="1:2">
+      <c r="A18" t="s">
         <v>250</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B18" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="2" t="s">
+    <row r="19" ht="14.4" spans="1:2">
+      <c r="A19" t="s">
         <v>252</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B19" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
-      <c r="A332" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="A338" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="A339" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2">
-      <c r="A340" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="A341" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="A343" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
-      <c r="A344" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
-      <c r="A345" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
-      <c r="A346" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="A349" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2">
-      <c r="A351" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2">
-      <c r="A352" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
-      <c r="A354" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
-      <c r="A355" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="A356" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="A359" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
-      <c r="A360" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2">
-      <c r="A362" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2">
-      <c r="A363" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
-      <c r="A364" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2">
-      <c r="A366" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2">
-      <c r="A367" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2">
-      <c r="A368" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2">
-      <c r="A369" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="B369" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2">
-      <c r="A370" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
-      <c r="A371" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="B371" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2">
-      <c r="A372" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
-      <c r="A373" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
-      <c r="A374" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B374" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
-      <c r="A375" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2">
-      <c r="A377" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
-      <c r="A378" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="A380" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="B380" s="2" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
-      <c r="A381" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
-      <c r="A383" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2">
-      <c r="A384" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2">
-      <c r="A385" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2">
-      <c r="A386" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="B386" s="2" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
-      <c r="A387" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
-      <c r="A388" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
-      <c r="A389" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="B389" s="2" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2">
-      <c r="A390" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2">
-      <c r="A391" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="B391" s="2" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
-      <c r="A392" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
-      <c r="A393" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="B393" s="2" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2">
-      <c r="A394" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2">
-      <c r="A395" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="B395" s="2" t="s">
-        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -6900,10 +5523,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D395"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -6920,608 +5543,3168 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>794</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>258</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>127</v>
+        <v>268</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>795</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>796</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>797</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>798</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>148</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>147</v>
+        <v>278</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>148</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>152</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>157</v>
+        <v>282</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>158</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>159</v>
+        <v>284</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>160</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>161</v>
+        <v>286</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>162</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>162</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>169</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>173</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>178</v>
+        <v>294</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>179</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>180</v>
+        <v>296</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>181</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>182</v>
+        <v>298</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>183</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>799</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>190</v>
+        <v>302</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>191</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>800</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>198</v>
+        <v>306</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>801</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>204</v>
+        <v>308</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>205</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>208</v>
+        <v>310</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>209</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>213</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>214</v>
+        <v>314</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>802</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>216</v>
+        <v>316</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>803</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>804</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>805</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>222</v>
+        <v>322</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>223</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>224</v>
+        <v>324</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>806</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>228</v>
+        <v>326</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>229</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>232</v>
+        <v>328</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>233</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>807</v>
+        <v>330</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>808</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>809</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>254</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>810</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>258</v>
+        <v>338</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>811</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>812</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>273</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>813</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>814</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>815</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>816</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>817</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>818</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>819</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>820</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>821</v>
+        <v>393</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>822</v>
+        <v>397</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>823</v>
+        <v>399</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>824</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
@@ -7531,6 +8714,639 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D75"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="12.1111111111111" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.3333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.0740740740741" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.58333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.3333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.2222222222222" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88888888888889" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D6"/>
@@ -7543,64 +9359,64 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>794</v>
+        <v>1041</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>352</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>353</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>363</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>364</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>365</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
